--- a/Data/p.value.prepost.within.xlsx
+++ b/Data/p.value.prepost.within.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09B004C4-A08B-124C-8B03-A141F7DF71C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1FBC9E-F8FE-2B4A-B610-012FDADB583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32080" yWindow="880" windowWidth="27640" windowHeight="16440" xr2:uid="{37710B32-76EF-D744-BACB-A0E1F0CE6AAA}"/>
   </bookViews>
@@ -453,10 +453,14 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
